--- a/Projeto_Normalização/Exemplos_Práticos/Exemplo_TabelaSemNorma.xlsx
+++ b/Projeto_Normalização/Exemplos_Práticos/Exemplo_TabelaSemNorma.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A83B7D-FA05-4E79-806B-084E3B9D5EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Normalizacao-G2M\Projeto_Normalização\Exemplos_Práticos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4635176-946E-4F2A-B28C-CCA981203F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -128,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,23 +516,23 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,7 +545,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -580,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -609,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -638,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -667,7 +661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -696,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -725,7 +719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
